--- a/Naver/Results/FD_Crawling_Business_Info_System_20240805.xlsx
+++ b/Naver/Results/FD_Crawling_Business_Info_System_20240805.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="가맹사업정보" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,37 +434,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Business</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Representative</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Registration_Number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Init_Date</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -460,71 +472,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(주)더블유제이코퍼레이션</t>
+          <t>하오반점</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>샤브향</t>
+          <t>하오반점</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>하용수</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20213978</t>
-        </is>
+          <t>김동현, 김경민</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20241071</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021.11.03</t>
+          <t>2024.08.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>중식</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(주)씨피알프로젝트</t>
+          <t>오밤족</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>덕수파스타 딜리버리</t>
+          <t>오밤족</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>김민수</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20210393</t>
-        </is>
+          <t>이상오</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>20241072</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021.02.16</t>
+          <t>2024.08.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>서양식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
@@ -547,10 +555,8 @@
           <t>박복림</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20241064</t>
-        </is>
+      <c r="E4" t="n">
+        <v>20241064</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -582,10 +588,8 @@
           <t>임태윤</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20241066</t>
-        </is>
+      <c r="E5" t="n">
+        <v>20241066</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -617,10 +621,8 @@
           <t>주용식</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20241077</t>
-        </is>
+      <c r="E6" t="n">
+        <v>20241077</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -652,10 +654,8 @@
           <t>김진욱</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20241063</t>
-        </is>
+      <c r="E7" t="n">
+        <v>20241063</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -687,10 +687,8 @@
           <t>백한기</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20241062</t>
-        </is>
+      <c r="E8" t="n">
+        <v>20241062</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -722,10 +720,8 @@
           <t>서인수</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20241076</t>
-        </is>
+      <c r="E9" t="n">
+        <v>20241076</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -757,10 +753,8 @@
           <t>이차동</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20241075</t>
-        </is>
+      <c r="E10" t="n">
+        <v>20241075</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -775,62 +769,58 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>준성이네</t>
+          <t>장안라운지본점</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>준성이네</t>
+          <t>장안라운지</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LI FENGGUANG(이봉광)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20230660</t>
-        </is>
+          <t>송정재</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>20241070</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.05.10</t>
+          <t>2024.08.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>주점</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>장안라운지본점</t>
+          <t>(주)오이코</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>장안라운지</t>
+          <t>별국수</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>송정재</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20241070</t>
-        </is>
+          <t>박선아</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>20241067</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -839,107 +829,101 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>주점</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(주)맥스원이링크</t>
+          <t>㈜레호보트</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>바나타이거</t>
+          <t>커피에 빠진 호두도둑</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>황규연</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20212341</t>
-        </is>
+          <t>김영안</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>20240526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021.09.30</t>
+          <t>2024.04.08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>제과제빵</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>오밤족</t>
+          <t>요거트가족</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>오밤족</t>
+          <t>요거트가족</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>이상오</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20241072</t>
-        </is>
+          <t>이민재</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20240499</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.08.02</t>
+          <t>2024.04.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>아이스크림/빙수</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(주)오이코</t>
+          <t>뭉돌이흑돼지</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>별국수</t>
+          <t>뭉돌이흑돼지</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>박선아</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20241067</t>
-        </is>
+          <t>박재준</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>20240005</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.08.02</t>
+          <t>2024.01.02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -950,31 +934,29 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>(주)신밥도둑</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>황금식당</t>
+          <t>제육감</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20170659</t>
-        </is>
+          <t>주다빈</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>20231858</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2017.06.01</t>
+          <t>2023.12.19</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -985,31 +967,29 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>(주)신밥도둑</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>호랭이곱창</t>
+          <t>붓다카레</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20150047</t>
-        </is>
+          <t>주다빈</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20231859</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2015.01.19</t>
+          <t>2023.12.19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1020,276 +1000,260 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>(주)더큰코리아</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>한라담</t>
+          <t>소바공방</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20190828</t>
-        </is>
+          <t>변기환</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20231798</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2019.08.13</t>
+          <t>2023.12.05</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>일식</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>(주)쉐프군단</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>연안식당</t>
+          <t>직진남</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20171421</t>
-        </is>
+          <t>원종민</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>20231626</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2017.12.01</t>
+          <t>2023.11.07</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>동양카츠</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>애플삼겹살</t>
+          <t>동양카츠</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20160031</t>
-        </is>
+          <t>배승준</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>20231382</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2016.01.13</t>
+          <t>2023.09.22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>(주)메이플탑</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>신마포갈매기</t>
+          <t>메이플탑</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20090100099</t>
-        </is>
+          <t>권 제임스 영(Kwon James Young)</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>20231076</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2009.02.18</t>
+          <t>2023.07.26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>풀먹는호랑이</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>반달전집</t>
+          <t>풀먹는호랑이</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20190865</t>
-        </is>
+          <t>김창석</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>20230717</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2019.08.21</t>
+          <t>2023.05.19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>패스트푸드</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>찜한푸드</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>공화춘</t>
+          <t>김치찜한돼지</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20200861</t>
-        </is>
+          <t>곽철민</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>20230677</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2020.07.13</t>
+          <t>2023.05.12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>준성이네</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>고래식당</t>
+          <t>준성이네</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20161233</t>
-        </is>
+          <t>LI FENGGUANG(이봉광)</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>20230660</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2016.12.15</t>
+          <t>2023.05.10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>중식</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(주)디딤이앤에프</t>
+          <t>더국민푸드</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>고래감자탕</t>
+          <t>오늘은전골</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>김대은</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20170223</t>
-        </is>
+          <t>차동현</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>20230572</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2017.02.10</t>
+          <t>2023.04.19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1300,31 +1264,29 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>하오반점</t>
+          <t>마라탕입구</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>하오반점</t>
+          <t>마라입구</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>김동현, 김경민</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20241071</t>
-        </is>
+          <t>CUI JINHUA</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>20230469</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024.08.02</t>
+          <t>2023.03.27</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1335,66 +1297,62 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>찜한푸드</t>
+          <t>(주)아마릴리스</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>김치찜한돼지</t>
+          <t>스위트1225</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>곽철민</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20230677</t>
-        </is>
+          <t>김종경</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>20230175</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.05.12</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>커피</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(주)해우리홀딩스</t>
+          <t>(주)홍락</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>해우리</t>
+          <t>미래회관</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>오유택</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20171442</t>
-        </is>
+          <t>이승훈</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>20230139</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2017.12.07</t>
+          <t>2023.01.30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1405,101 +1363,95 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(주)청욱</t>
+          <t>마라궁</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>로얄자카르타</t>
+          <t>마라궁</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>김봉성</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20201279</t>
-        </is>
+          <t>왕수정</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>20230045</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2020.09.29</t>
+          <t>2023.01.11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>주점</t>
+          <t>중식</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(주)청춘에프앤비</t>
+          <t>매복식당</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EGG182(에그182)</t>
+          <t>매복식당</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>이상우</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20211758</t>
-        </is>
+          <t>백건우</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>20221377</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021.08.04</t>
+          <t>2022.12.13</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>서양식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(주)청춘에프앤비</t>
+          <t>바른푸드</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>써든부대찌개</t>
+          <t>바른죽</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>이상우</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>20211756</t>
-        </is>
+          <t>김보민</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>20221197</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021.08.04</t>
+          <t>2022.11.09</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1510,206 +1462,194 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>(주)청춘에프앤비</t>
+          <t>남다른썬치킨PMH푸드(PMHFood)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SUDDEN STEAK(써든스테이크)</t>
+          <t>남다른썬치킨</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>이상우</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20211757</t>
-        </is>
+          <t>이수정</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>20221049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021.08.04</t>
+          <t>2022.10.07</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>서양식</t>
+          <t>치킨</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>마라궁</t>
+          <t>(주)어니스트로스터스</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>마라궁</t>
+          <t>어니스트(Honest)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>왕수정</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>20230045</t>
-        </is>
+          <t>박현민</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>20220853</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.01.11</t>
+          <t>2022.08.23</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>커피</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>남다른썬치킨PMH푸드(PMHFood)</t>
+          <t>(주)일이3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>남다른썬치킨</t>
+          <t>머시기쪽갈비</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>이수정</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20221049</t>
-        </is>
+          <t>김육일</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>20220710</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022.10.07</t>
+          <t>2022.07.26</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>치킨</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(주)경성키친</t>
+          <t>(주)파파들</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>경성키친</t>
+          <t>비밀(BE.MEAL)베이커리</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>최보선</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>20200447</t>
-        </is>
+          <t>이윤성, 이원일 정인성, 이국진</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>20220490</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2020.03.30</t>
+          <t>2022.06.09</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>제과제빵</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>동양카츠</t>
+          <t>신입파스타본사</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>동양카츠</t>
+          <t>신입파스타</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>배승준</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>20231382</t>
-        </is>
+          <t>유병진,이준수</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>20220401</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.09.22</t>
+          <t>2022.05.12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>서양식</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(주)에프엔아이컴퍼니</t>
+          <t>(주)더일마레</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>윤반장</t>
+          <t>신깡통뒷고기</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>윤희재</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>20211652</t>
-        </is>
+          <t>차재욱</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>20220329</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021.07.20</t>
+          <t>2022.04.22</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1720,136 +1660,128 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(주)뉴플레이스에프엔비</t>
+          <t>아끌로네</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>뉴플레이스커피</t>
+          <t>아끌로네</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>노명근</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>20215533</t>
-        </is>
+          <t>장윤주</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>20220048</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021.11.17</t>
+          <t>2022.01.18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>피자</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>요거트가족</t>
+          <t>(주)위드에프앤비</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>요거트가족</t>
+          <t>곱도리탕전문점</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>이민재</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>20240499</t>
-        </is>
+          <t>조민형</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>20215451</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024.04.02</t>
+          <t>2021.11.17</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>아이스크림/빙수</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(주)국밥쟁이</t>
+          <t>(주)뉴플레이스에프엔비</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>국밥쟁이</t>
+          <t>뉴플레이스커피</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>전영근</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>20200355</t>
-        </is>
+          <t>노명근</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>20215533</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2020.03.10</t>
+          <t>2021.11.17</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>커피</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>바른푸드</t>
+          <t>(주)위드에프앤비</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>바른죽</t>
+          <t>하누곱도리</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>김보민</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>20221197</t>
-        </is>
+          <t>조민형</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>20215450</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022.11.09</t>
+          <t>2021.11.17</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1860,101 +1792,95 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(주)맥스원이링크</t>
+          <t>농업회사법인(주)아침빛바다</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>셀렉토커피</t>
+          <t>미미관마라탕</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>황규연</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20120100504</t>
-        </is>
+          <t>제정훈</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>20214794</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2012.09.19</t>
+          <t>2021.11.12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>중식</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>(주)일이3</t>
+          <t>(주)헤이키컴퍼니</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>머시기쪽갈비</t>
+          <t>헤이키 커피</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>김육일</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20220710</t>
-        </is>
+          <t>노우성</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>20214193</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022.07.26</t>
+          <t>2021.11.05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>커피</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>(주)맥스원이링크</t>
+          <t>(주)더블유제이코퍼레이션</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>스윗샌드</t>
+          <t>샤브향</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>황규연</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20213574</t>
-        </is>
+          <t>하용수</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>20213978</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021.10.29</t>
+          <t>2021.11.03</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1965,101 +1891,95 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(주)위드에프앤비</t>
+          <t>(주)맥스원이링크</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>곱도리탕전문점</t>
+          <t>스윗샌드</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>조민형</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>20215451</t>
-        </is>
+          <t>황규연</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>20213574</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021.11.17</t>
+          <t>2021.10.29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(주)위드에프앤비</t>
+          <t>제이원</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>하누곱도리</t>
+          <t>1일1디저트</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>조민형</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20215450</t>
-        </is>
+          <t>안재홍</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>20212968</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021.11.17</t>
+          <t>2021.10.21</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>기타 외국식</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(주)원프두</t>
+          <t>다가양조장</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>원청담면옥</t>
+          <t>다가양조장</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>윤달원</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>20190338</t>
-        </is>
+          <t>공현식</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>20212979</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2019.04.10</t>
+          <t>2021.10.21</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2070,27 +1990,25 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>제이원</t>
+          <t>(주)황제에프앤씨</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1일1디저트</t>
+          <t>황제무한화로구이</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>안재홍</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>20212968</t>
-        </is>
+          <t>김성훈</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>20213027</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2099,107 +2017,101 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>기타 외국식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(주)종로호랑이에프앤디</t>
+          <t>(주)원호코리아</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1974 종로호랑이맥주</t>
+          <t>짱어랑 프레시</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>김석주</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>20200006</t>
-        </is>
+          <t>배상욱</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>20212805</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2020.01.02</t>
+          <t>2021.10.18</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>주점</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>㈜몬스터</t>
+          <t>(주)투짱보태</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>몬스터커피</t>
+          <t>순살의명가</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>안기수</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>20191191</t>
-        </is>
+          <t>염태훈</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>20212808</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2019.11.15</t>
+          <t>2021.10.18</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>치킨</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>매복식당</t>
+          <t>명장푸드</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>매복식당</t>
+          <t>명장진국설렁탕</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>백건우</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>20221377</t>
-        </is>
+          <t>김향규</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>20212468</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022.12.13</t>
+          <t>2021.10.07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2210,31 +2122,29 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>㈜티엠컴퍼니</t>
+          <t>(주)맥스원이링크</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>커피스토아</t>
+          <t>바나타이거</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>김진수, 박상준</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>20211570</t>
-        </is>
+          <t>황규연</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>20212341</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021.07.14</t>
+          <t>2021.09.30</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2245,31 +2155,29 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>(주)황제에프앤씨</t>
+          <t>(주)투짱보태</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>황제무한화로구이</t>
+          <t>그집등갈비</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>김성훈</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>20213027</t>
-        </is>
+          <t>염태훈</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>20212185</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021.10.21</t>
+          <t>2021.09.15</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2280,591 +2188,557 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(주)오리엔트푸드</t>
+          <t>(주)투짱보태</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>석관동떡볶이</t>
+          <t>와우치밥</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>홍정화</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>20160327</t>
-        </is>
+          <t>염태훈</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>20212150</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2016.04.07</t>
+          <t>2021.09.14</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(주)헤이키컴퍼니</t>
+          <t>(주)청춘에프앤비</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>헤이키 커피</t>
+          <t>써든부대찌개</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>노우성</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>20214193</t>
-        </is>
+          <t>이상우</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>20211756</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021.11.05</t>
+          <t>2021.08.04</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>농업회사법인(주)아침빛바다</t>
+          <t>(주)청춘에프앤비</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>미미관마라탕</t>
+          <t>EGG182(에그182)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>제정훈</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>20214794</t>
-        </is>
+          <t>이상우</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>20211758</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021.11.12</t>
+          <t>2021.08.04</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>서양식</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(주)에이치엘코포레이션</t>
+          <t>(주)청춘에프앤비</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>한뚝수육국밥</t>
+          <t>SUDDEN STEAK(써든스테이크)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>김민찬</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>20190603</t>
-        </is>
+          <t>이상우</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>20211757</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2019.06.26</t>
+          <t>2021.08.04</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>서양식</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>아끌로네</t>
+          <t>(주)에프엔아이컴퍼니</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>아끌로네</t>
+          <t>윤반장</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>장윤주</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>20220048</t>
-        </is>
+          <t>윤희재</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>20211652</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022.01.18</t>
+          <t>2021.07.20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>피자</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(주)완벽한인생브루어리</t>
+          <t>㈜티엠컴퍼니</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>파스타에꼬치다</t>
+          <t>커피스토아</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>정학재</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>20190737</t>
-        </is>
+          <t>김진수, 박상준</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>20211570</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2019.07.24</t>
+          <t>2021.07.14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>커피</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(주)더큰코리아</t>
+          <t>(주)안스푸드</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>소바공방</t>
+          <t>버거운버거(BURGER UN BURGER)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>변기환</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>20231798</t>
-        </is>
+          <t>안원석</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>20211461</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.12.05</t>
+          <t>2021.06.29</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>일식</t>
+          <t>패스트푸드</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(주)메이플탑</t>
+          <t>(주)신밥도둑</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>메이플탑</t>
+          <t>신밥도둑</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>권 제임스 영(Kwon James Young)</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>20231076</t>
-        </is>
+          <t>주다빈</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>20211333</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.07.26</t>
+          <t>2021.06.07</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(주)강동오케익</t>
+          <t>(주)씨피알프로젝트</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>풍년인카페</t>
+          <t>덕수파스타 딜리버리</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>강동오</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>20170187</t>
-        </is>
+          <t>김민수</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>20210393</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2017.02.03</t>
+          <t>2021.02.16</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>음료 (커피 외)</t>
+          <t>서양식</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(주)강동오케익</t>
+          <t>농담</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>풍년제과</t>
+          <t>농담</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>강동오</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>20080400011</t>
-        </is>
+          <t>김진우</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>20210253</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2008.07.30</t>
+          <t>2021.01.28</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>제과제빵</t>
+          <t>서양식</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>마라탕입구</t>
+          <t>(주)파파들</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>마라입구</t>
+          <t>꼬끼오 분식</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CUI JINHUA</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>20230469</t>
-        </is>
+          <t>이윤성, 이원일, 정인성, 이국진</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>20210033</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.03.27</t>
+          <t>2021.01.08</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>분식</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(주)나무에프엠디</t>
+          <t>(주)밀립</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>뜨돈(DD'DON)</t>
+          <t>밀립</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>전재현, 전병길, 유지환</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>20161129</t>
-        </is>
+          <t>이성태</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>20201902</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2016.11.02</t>
+          <t>2020.12.24</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>서양식</t>
+          <t>아이스크림/빙수</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>신입파스타본사</t>
+          <t>(주)청욱</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>신입파스타</t>
+          <t>로얄자카르타</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>유병진,이준수</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>20220401</t>
-        </is>
+          <t>김봉성</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>20201279</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022.05.12</t>
+          <t>2020.09.29</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>서양식</t>
+          <t>주점</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>농담</t>
+          <t>(주)와이에이치컴퍼니</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>농담</t>
+          <t>고기극찬</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>김진우</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>20210253</t>
-        </is>
+          <t>유해선</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>20201014</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021.01.28</t>
+          <t>2020.08.12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>서양식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(주)투짱보태</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>와우치밥</t>
+          <t>공화춘</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>염태훈</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>20212150</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>20200861</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021.09.14</t>
+          <t>2020.07.13</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>중식</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>(주)투짱보태</t>
+          <t>(주)경성키친</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>순살의명가</t>
+          <t>경성키친</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>염태훈</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>20212808</t>
-        </is>
+          <t>최보선</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>20200447</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021.10.18</t>
+          <t>2020.03.30</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>치킨</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>(주)투짱보태</t>
+          <t>(주)국밥쟁이</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>그집등갈비</t>
+          <t>국밥쟁이</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>염태훈</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>20212185</t>
-        </is>
+          <t>전영근</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>20200355</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021.09.15</t>
+          <t>2020.03.10</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2875,171 +2749,161 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>뭉돌이흑돼지</t>
+          <t>(주)종로호랑이에프앤디</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>뭉돌이흑돼지</t>
+          <t>1974 종로호랑이맥주</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>박재준</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>20240005</t>
-        </is>
+          <t>김석주</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>20200006</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2024.01.02</t>
+          <t>2020.01.02</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>주점</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>(주)에이치티코리아</t>
+          <t>㈜몬스터</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>인생극장</t>
+          <t>몬스터커피</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>김인태</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>20130325</t>
-        </is>
+          <t>안기수</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>20191191</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2013.10.24</t>
+          <t>2019.11.15</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>커피</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>(주)홍락</t>
+          <t>피자야</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>미래회관</t>
+          <t>피자야</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>이승훈</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>20230139</t>
-        </is>
+          <t>곽은주</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>20191029</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.01.30</t>
+          <t>2019.10.08</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>피자</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(주)영동족발</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>영동족발</t>
+          <t>반달전집</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>정용철</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>20130361</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>20190865</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2013.11.07</t>
+          <t>2019.08.21</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>(주)휴림</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>삼백집</t>
+          <t>한라담</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>조문수</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>20110400001</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>20190828</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2011.03.14</t>
+          <t>2019.08.13</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3050,31 +2914,29 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>(주)쉐프군단</t>
+          <t>(주)완벽한인생브루어리</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>직진남</t>
+          <t>파스타에꼬치다</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>원종민</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>20231626</t>
-        </is>
+          <t>정학재</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>20190737</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.07</t>
+          <t>2019.07.24</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3085,31 +2947,29 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(주)케이지컴퍼니</t>
+          <t>(주)에이치엘코포레이션</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>거송갈비찜</t>
+          <t>한뚝수육국밥</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>박현규</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>20170374</t>
-        </is>
+          <t>김민찬</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>20190603</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2017.03.14</t>
+          <t>2019.06.26</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3120,31 +2980,29 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>(주)더일마레</t>
+          <t>(주)원프두</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>신깡통뒷고기</t>
+          <t>원청담면옥</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>차재욱</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>20220329</t>
-        </is>
+          <t>윤달원</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>20190338</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022.04.22</t>
+          <t>2019.04.10</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3155,31 +3013,29 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(주)신밥도둑</t>
+          <t>한티재</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>붓다카레</t>
+          <t>한티재</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>주다빈</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>20231859</t>
-        </is>
+          <t>권진성, 윤영희</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>20181129</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.12.19</t>
+          <t>2018.11.05</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3190,171 +3046,161 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>(주)신밥도둑</t>
+          <t>(주)파파들</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>제육감</t>
+          <t>파파도나스</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>주다빈</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>20231858</t>
-        </is>
+          <t>이윤성, 이원일, 정인성, 이국진</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>20180953</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.12.19</t>
+          <t>2018.09.14</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>제과제빵</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>(주)신밥도둑</t>
+          <t>(주)비브라더스</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>신밥도둑</t>
+          <t>감성커피</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>주다빈</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>20211333</t>
-        </is>
+          <t>이재영</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>20180070</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021.06.07</t>
+          <t>2018.01.26</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>커피</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(주)비브라더스</t>
+          <t>(주)해우리홀딩스</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>감성커피</t>
+          <t>해우리</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>이재영</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>20180070</t>
-        </is>
+          <t>오유택</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>20171442</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2018.01.26</t>
+          <t>2017.12.07</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(주)비브라더스</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>존슨켄터키</t>
+          <t>연안식당</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>이재영</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>20140971</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>20171421</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2014.10.10</t>
+          <t>2017.12.01</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>치킨</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>다가양조장</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>다가양조장</t>
+          <t>황금식당</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>공현식</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>20212979</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>20170659</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021.10.21</t>
+          <t>2017.06.01</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3365,31 +3211,29 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>명장푸드</t>
+          <t>(주)케이지컴퍼니</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>명장진국설렁탕</t>
+          <t>거송갈비찜</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>김향규</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>20212468</t>
-        </is>
+          <t>박현규</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>20170374</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021.10.07</t>
+          <t>2017.03.14</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3400,451 +3244,425 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>(주)안스푸드</t>
+          <t>(주)진가원푸드</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>버거운버거(BURGER UN BURGER)</t>
+          <t>진가원 전주콩나물국밥,묵사발</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>안원석</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>20211461</t>
-        </is>
+          <t>진광범</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>20170330</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021.06.29</t>
+          <t>2017.03.03</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>패스트푸드</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>(주)어니스트로스터스</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>어니스트(Honest)</t>
+          <t>고래감자탕</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>박현민</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>20220853</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>20170223</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022.08.23</t>
+          <t>2017.02.10</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>(주)밀립</t>
+          <t>(주)강동오케익</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>밀립</t>
+          <t>풍년인카페</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>이성태</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>20201902</t>
-        </is>
+          <t>강동오</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>20170187</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2020.12.24</t>
+          <t>2017.02.03</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>아이스크림/빙수</t>
+          <t>음료 (커피 외)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>피자야</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>피자야</t>
+          <t>고래식당</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>곽은주</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>20191029</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>20161233</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2019.10.08</t>
+          <t>2016.12.15</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>피자</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>(주)파파들</t>
+          <t>(주)나무에프엠디</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>꼬끼오 분식</t>
+          <t>뜨돈(DD'DON)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>이윤성, 이원일, 정인성, 이국진</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>20210033</t>
-        </is>
+          <t>전재현, 전병길, 유지환</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>20161129</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021.01.08</t>
+          <t>2016.11.02</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>분식</t>
+          <t>서양식</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>(주)파파들</t>
+          <t>(주)후니에프앤비</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>비밀(BE.MEAL)베이커리</t>
+          <t>홍대개미</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>이윤성, 이원일 정인성, 이국진</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>20220490</t>
-        </is>
+          <t>임준성, 김형일</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>20160621</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022.06.09</t>
+          <t>2016.04.22</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>제과제빵</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>(주)파파들</t>
+          <t>(주)오리엔트푸드</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>파파도나스</t>
+          <t>석관동떡볶이</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>이윤성, 이원일, 정인성, 이국진</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>20180953</t>
-        </is>
+          <t>홍정화</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>20160327</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2018.09.14</t>
+          <t>2016.04.07</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>제과제빵</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>(주)진가원푸드</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>진가원 전주콩나물국밥,묵사발</t>
+          <t>애플삼겹살</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>진광범</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>20170330</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>20160031</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2017.03.03</t>
+          <t>2016.01.13</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>㈜레호보트</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>커피에 빠진 호두도둑</t>
+          <t>호랭이곱창</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>김영안</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>20240526</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>20150047</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2024.04.08</t>
+          <t>2015.01.19</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>제과제빵</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>(주)후니에프앤비</t>
+          <t>(주)비브라더스</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>홍대개미</t>
+          <t>존슨켄터키</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>임준성, 김형일</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>20160621</t>
-        </is>
+          <t>이재영</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>20140971</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2016.04.22</t>
+          <t>2014.10.10</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>치킨</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>한티재</t>
+          <t>(주)영동족발</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>한티재</t>
+          <t>영동족발</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>권진성, 윤영희</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>20181129</t>
-        </is>
+          <t>정용철</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>20130361</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2018.11.05</t>
+          <t>2013.11.07</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>기타 외식</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>풀먹는호랑이</t>
+          <t>(주)에이치티코리아</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>풀먹는호랑이</t>
+          <t>인생극장</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>김창석</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>20230717</t>
-        </is>
+          <t>김인태</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>20130325</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.05.19</t>
+          <t>2013.10.24</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>패스트푸드</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>(주)아마릴리스</t>
+          <t>(주)맥스원이링크</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>스위트1225</t>
+          <t>셀렉토커피</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>김종경</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>20230175</t>
-        </is>
+          <t>황규연</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>20120100504</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2012.09.19</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3855,31 +3673,29 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>(주)와이에이치컴퍼니</t>
+          <t>(주)휴림</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>고기극찬</t>
+          <t>삼백집</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>유해선</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>20201014</t>
-        </is>
+          <t>조문수</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>20110400001</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2020.08.12</t>
+          <t>2011.03.14</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3890,71 +3706,67 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>(주)원호코리아</t>
+          <t>(주)디딤이앤에프</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>짱어랑 프레시</t>
+          <t>신마포갈매기</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>배상욱</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>20212805</t>
-        </is>
+          <t>김대은</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>20090100099</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021.10.18</t>
+          <t>2009.02.18</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>기타 외식</t>
+          <t>한식</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>더국민푸드</t>
+          <t>(주)강동오케익</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>오늘은전골</t>
+          <t>풍년제과</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>차동현</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>20230572</t>
-        </is>
+          <t>강동오</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>20080400011</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.04.19</t>
+          <t>2008.07.30</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>제과제빵</t>
         </is>
       </c>
     </row>
